--- a/default-mappings-xlsx/dataQuality/DataQuality_Mapping_Salesforce_EN.xlsx
+++ b/default-mappings-xlsx/dataQuality/DataQuality_Mapping_Salesforce_EN.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitRepos\snapaddy-faq-attachments\default-mappings-xlsx\grabber\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitRepos\snapaddy-faq-attachments\default-mappings-xlsx\dataQuality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2205A585-2813-43C2-BDEF-9F8FE9FC0693}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C14563E-6021-457D-9D64-EFF4B2BCBB61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4740A9B0-2E57-42FE-A57B-C2BAD0638104}"/>
+    <workbookView xWindow="4020" yWindow="3720" windowWidth="23010" windowHeight="9105" xr2:uid="{4740A9B0-2E57-42FE-A57B-C2BAD0638104}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Checkbox">Tabelle1!$C$6:$D$24</definedName>
-    <definedName name="Field_Type">Tabelle1!$Y$27:$Y$35,Tabelle1!$Y$6:$Y$23,Tabelle1!$Y$24,Tabelle1!$U$6:$U$24,Tabelle1!$U$27:$U$35,Tabelle1!$Q$27:$Q$35,Tabelle1!$Q$6:$Q$24,Tabelle1!$M$6:$M$24,Tabelle1!$M$27:$M$35,Tabelle1!$I$27:$I$35,Tabelle1!$I$6:$I$24</definedName>
+    <definedName name="Checkbox">Tabelle1!$C$6:$D$29</definedName>
+    <definedName name="Field_Type">Tabelle1!$Y$32:$Y$37,Tabelle1!$Y$6:$Y$25,Tabelle1!$Y$29,Tabelle1!$U$6:$U$29,Tabelle1!$U$32:$U$37,Tabelle1!$Q$32:$Q$37,Tabelle1!$Q$6:$Q$29,Tabelle1!$M$6:$M$29,Tabelle1!$M$32:$M$37,Tabelle1!$I$32:$I$37,Tabelle1!$I$6:$I$29</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="81">
   <si>
     <t>CRM System: Salesforce</t>
   </si>
@@ -254,6 +254,30 @@
   </si>
   <si>
     <t>Notes</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Example Not used field</t>
+  </si>
+  <si>
+    <t>Not Used Field</t>
+  </si>
+  <si>
+    <t>Not_Used_Field</t>
+  </si>
+  <si>
+    <t>Example Mandatory field</t>
+  </si>
+  <si>
+    <t>Mandatory field</t>
+  </si>
+  <si>
+    <t>Mandatory_field</t>
+  </si>
+  <si>
+    <t>(= Fields with automatic value)</t>
   </si>
 </sst>
 </file>
@@ -361,7 +385,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="68">
+  <borders count="50">
     <border>
       <left/>
       <right/>
@@ -480,62 +504,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thick">
         <color rgb="FF0070C0"/>
       </left>
@@ -556,34 +524,38 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FF0070C0"/>
+      <left style="thin">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF9DA600"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF9DA600"/>
       </right>
       <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom/>
+        <color rgb="FF9DA600"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF9DA600"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF9DA600"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thin">
+      <right style="thick">
         <color rgb="FF9DA600"/>
       </right>
       <top style="thin">
@@ -595,7 +567,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="thick">
         <color rgb="FF9DA600"/>
       </left>
       <right style="thick">
@@ -606,41 +578,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF0070C0"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
       </bottom>
       <diagonal/>
     </border>
@@ -679,89 +616,6 @@
       <bottom style="thin">
         <color rgb="FF0070C0"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1034,17 +888,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FF0070C0"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thick">
         <color theme="4" tint="0.59996337778862885"/>
       </left>
@@ -1097,7 +940,9 @@
       <top style="thin">
         <color rgb="FF0070C0"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1108,41 +953,6 @@
       <top style="thin">
         <color rgb="FF0070C0"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
-      </left>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color rgb="FF0070C0"/>
       </bottom>
@@ -1226,7 +1036,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1255,133 +1065,90 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="22">
     <dxf>
       <font>
         <b val="0"/>
@@ -1478,8 +1245,52 @@
         <color rgb="FFFE6C36"/>
       </font>
       <fill>
-        <patternFill patternType="lightHorizontal">
-          <fgColor theme="0" tint="-0.14996795556505021"/>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
           <bgColor auto="1"/>
         </patternFill>
       </fill>
@@ -1677,13 +1488,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>973015</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>105510</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2044,10 +1855,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795B0A9E-16D1-4F4A-842C-C5B0396BE825}">
-  <dimension ref="A1:Y36"/>
+  <dimension ref="A1:AG38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -2069,16 +1880,16 @@
     <col min="23" max="25" width="15" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:33" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:33" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:25" ht="63.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33" ht="63.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -2090,35 +1901,35 @@
         <v>3</v>
       </c>
       <c r="E3" s="5"/>
-      <c r="G3" s="80" t="s">
+      <c r="G3" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
       <c r="J3" s="6"/>
-      <c r="K3" s="80" t="s">
+      <c r="K3" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="80"/>
-      <c r="M3" s="80"/>
-      <c r="O3" s="80" t="s">
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="O3" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="P3" s="80"/>
-      <c r="Q3" s="80"/>
-      <c r="S3" s="81" t="s">
+      <c r="P3" s="55"/>
+      <c r="Q3" s="55"/>
+      <c r="S3" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="T3" s="82"/>
-      <c r="U3" s="83"/>
-      <c r="W3" s="81" t="s">
+      <c r="T3" s="57"/>
+      <c r="U3" s="58"/>
+      <c r="W3" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="X3" s="82"/>
-      <c r="Y3" s="83"/>
-    </row>
-    <row r="4" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X3" s="57"/>
+      <c r="Y3" s="58"/>
+    </row>
+    <row r="4" spans="1:33" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
@@ -2157,1118 +1968,1240 @@
       <c r="Q5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="S5" s="63" t="s">
+      <c r="S5" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="T5" s="64" t="s">
+      <c r="T5" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="U5" s="65" t="s">
+      <c r="U5" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="W5" s="63" t="s">
+      <c r="W5" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="X5" s="64" t="s">
+      <c r="X5" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="Y5" s="65" t="s">
+      <c r="Y5" s="43" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="18"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="21"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="21"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="21"/>
-      <c r="S6" s="66"/>
-      <c r="T6" s="20"/>
-      <c r="U6" s="67"/>
-      <c r="W6" s="66"/>
-      <c r="X6" s="20"/>
-      <c r="Y6" s="67"/>
-    </row>
-    <row r="7" spans="1:25" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
+    <row r="6" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="19"/>
+      <c r="D6" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" s="21"/>
+      <c r="G6" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="I6" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="K6" s="15"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="24"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="24"/>
+      <c r="S6" s="44"/>
+      <c r="T6" s="23"/>
+      <c r="U6" s="45"/>
+      <c r="W6" s="44"/>
+      <c r="X6" s="23"/>
+      <c r="Y6" s="45"/>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="20"/>
+      <c r="E7" s="21"/>
+      <c r="G7" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="I7" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="K7" s="15"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="24"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="24"/>
+      <c r="S7" s="44"/>
+      <c r="T7" s="23"/>
+      <c r="U7" s="45"/>
+      <c r="W7" s="44"/>
+      <c r="X7" s="23"/>
+      <c r="Y7" s="45"/>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A8" s="14"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="21"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="24"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="24"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="24"/>
+      <c r="S8" s="44"/>
+      <c r="T8" s="23"/>
+      <c r="U8" s="45"/>
+      <c r="W8" s="44"/>
+      <c r="X8" s="23"/>
+      <c r="Y8" s="45"/>
+    </row>
+    <row r="9" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="26"/>
-      <c r="G7" s="32" t="s">
+      <c r="B9" s="18"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="21"/>
+      <c r="F9"/>
+      <c r="G9" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="33" t="s">
+      <c r="H9" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="34" t="s">
+      <c r="I9" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="K7" s="32" t="s">
+      <c r="J9"/>
+      <c r="K9" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="L7" s="33" t="s">
+      <c r="L9" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="34" t="s">
+      <c r="M9" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="O7" s="32"/>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="34"/>
-      <c r="S7" s="68" t="s">
+      <c r="N9"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="24"/>
+      <c r="R9"/>
+      <c r="S9" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="T7" s="33" t="s">
+      <c r="T9" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="U7" s="69"/>
-      <c r="W7" s="68"/>
-      <c r="X7" s="33"/>
-      <c r="Y7" s="69"/>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="U9" s="45"/>
+      <c r="V9"/>
+      <c r="W9" s="44"/>
+      <c r="X9" s="23"/>
+      <c r="Y9" s="45"/>
+      <c r="Z9"/>
+      <c r="AA9"/>
+      <c r="AB9"/>
+      <c r="AC9"/>
+      <c r="AD9"/>
+      <c r="AE9"/>
+      <c r="AF9"/>
+      <c r="AG9"/>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="31"/>
-      <c r="G8" s="32" t="s">
+      <c r="B10" s="18"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="21"/>
+      <c r="G10" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="33" t="s">
+      <c r="H10" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="62" t="s">
-        <v>68</v>
-      </c>
-      <c r="K8" s="32" t="s">
+      <c r="I10" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="K10" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="33" t="s">
+      <c r="L10" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="M8" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="O8" s="32"/>
-      <c r="P8" s="33"/>
-      <c r="Q8" s="34"/>
-      <c r="S8" s="70" t="s">
+      <c r="M10" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="O10" s="15"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="24"/>
+      <c r="S10" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="T8" s="36" t="s">
+      <c r="T10" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="U8" s="69"/>
-      <c r="W8" s="68"/>
-      <c r="X8" s="33"/>
-      <c r="Y8" s="69"/>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="U10" s="45"/>
+      <c r="W10" s="44"/>
+      <c r="X10" s="23"/>
+      <c r="Y10" s="45"/>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="28"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="31"/>
-      <c r="G9" s="32" t="s">
+      <c r="B11" s="18"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="21"/>
+      <c r="G11" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="33" t="s">
+      <c r="H11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="K9" s="32" t="s">
+      <c r="I11" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="K11" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="L9" s="33" t="s">
+      <c r="L11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="M9" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="O9" s="32"/>
-      <c r="P9" s="33"/>
-      <c r="Q9" s="34"/>
-      <c r="S9" s="68"/>
-      <c r="T9" s="33"/>
-      <c r="U9" s="69"/>
-      <c r="W9" s="68"/>
-      <c r="X9" s="33"/>
-      <c r="Y9" s="69"/>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="M11" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="O11" s="15"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="24"/>
+      <c r="S11" s="44"/>
+      <c r="T11" s="23"/>
+      <c r="U11" s="45"/>
+      <c r="W11" s="44"/>
+      <c r="X11" s="23"/>
+      <c r="Y11" s="45"/>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="31"/>
-      <c r="G10" s="32" t="s">
+      <c r="B12" s="18"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="21"/>
+      <c r="G12" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="33" t="s">
+      <c r="H12" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="I10" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="K10" s="32" t="s">
+      <c r="I12" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="K12" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="L10" s="33" t="s">
+      <c r="L12" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="M10" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="O10" s="32"/>
-      <c r="P10" s="33"/>
-      <c r="Q10" s="34"/>
-      <c r="S10" s="68"/>
-      <c r="T10" s="33"/>
-      <c r="U10" s="69"/>
-      <c r="W10" s="68"/>
-      <c r="X10" s="33"/>
-      <c r="Y10" s="69"/>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="M12" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="O12" s="15"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="24"/>
+      <c r="S12" s="44"/>
+      <c r="T12" s="23"/>
+      <c r="U12" s="45"/>
+      <c r="W12" s="44"/>
+      <c r="X12" s="23"/>
+      <c r="Y12" s="45"/>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="31"/>
-      <c r="G11" s="32" t="s">
+      <c r="B13" s="18"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="21"/>
+      <c r="G13" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="33" t="s">
+      <c r="H13" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="K11" s="32"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="34"/>
-      <c r="O11" s="32" t="s">
+      <c r="I13" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="K13" s="15"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="24"/>
+      <c r="O13" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="P11" s="33" t="s">
+      <c r="P13" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="Q11" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="S11" s="68"/>
-      <c r="T11" s="33"/>
-      <c r="U11" s="69"/>
-      <c r="W11" s="68"/>
-      <c r="X11" s="33"/>
-      <c r="Y11" s="69"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A12" s="37" t="s">
+      <c r="Q13" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="S13" s="44"/>
+      <c r="T13" s="23"/>
+      <c r="U13" s="45"/>
+      <c r="W13" s="44"/>
+      <c r="X13" s="23"/>
+      <c r="Y13" s="45"/>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="31"/>
-      <c r="G12" s="19" t="s">
+      <c r="B14" s="18"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="21"/>
+      <c r="G14" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="H12" s="20" t="s">
+      <c r="H14" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="I12" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="K12" s="19" t="s">
+      <c r="I14" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="K14" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="L12" s="20" t="s">
+      <c r="L14" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="M12" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="O12" s="19" t="s">
+      <c r="M14" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="O14" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="P12" s="20" t="s">
+      <c r="P14" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="Q12" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="S12" s="68"/>
-      <c r="T12" s="33"/>
-      <c r="U12" s="69"/>
-      <c r="W12" s="68"/>
-      <c r="X12" s="33"/>
-      <c r="Y12" s="69"/>
-    </row>
-    <row r="13" spans="1:25" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
+      <c r="Q14" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="S14" s="44"/>
+      <c r="T14" s="23"/>
+      <c r="U14" s="45"/>
+      <c r="W14" s="44"/>
+      <c r="X14" s="23"/>
+      <c r="Y14" s="45"/>
+    </row>
+    <row r="15" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="26"/>
-      <c r="G13" s="39" t="s">
+      <c r="B15" s="18"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="21"/>
+      <c r="F15"/>
+      <c r="G15" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="H13" s="33" t="s">
+      <c r="H15" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="I13" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="K13" s="39" t="s">
+      <c r="I15" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="J15"/>
+      <c r="K15" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="L13" s="40" t="s">
+      <c r="L15" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="M13" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="O13" s="39" t="s">
+      <c r="M15" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="N15"/>
+      <c r="O15" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="P13" s="40" t="s">
+      <c r="P15" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="Q13" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="S13" s="68"/>
-      <c r="T13" s="33"/>
-      <c r="U13" s="69"/>
-      <c r="W13" s="68"/>
-      <c r="X13" s="33"/>
-      <c r="Y13" s="69"/>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A14" s="41" t="s">
+      <c r="Q15" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="R15"/>
+      <c r="S15" s="44"/>
+      <c r="T15" s="23"/>
+      <c r="U15" s="45"/>
+      <c r="V15"/>
+      <c r="W15" s="44"/>
+      <c r="X15" s="23"/>
+      <c r="Y15" s="45"/>
+      <c r="Z15"/>
+      <c r="AA15"/>
+      <c r="AB15"/>
+      <c r="AC15"/>
+      <c r="AD15"/>
+      <c r="AE15"/>
+      <c r="AF15"/>
+      <c r="AG15"/>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="42"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="31"/>
-      <c r="G14" s="35" t="s">
+      <c r="B16" s="18"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="21"/>
+      <c r="G16" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="H14" s="36" t="s">
+      <c r="H16" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="I14" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="K14" s="35" t="s">
+      <c r="I16" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="K16" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="L14" s="36" t="s">
+      <c r="L16" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="M14" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="O14" s="35" t="s">
+      <c r="M16" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="O16" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="P14" s="36" t="s">
+      <c r="P16" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="Q14" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="S14" s="70"/>
-      <c r="T14" s="36"/>
-      <c r="U14" s="69"/>
-      <c r="W14" s="68"/>
-      <c r="X14" s="33"/>
-      <c r="Y14" s="69"/>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
+      <c r="Q16" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="S16" s="44"/>
+      <c r="T16" s="23"/>
+      <c r="U16" s="45"/>
+      <c r="W16" s="44"/>
+      <c r="X16" s="23"/>
+      <c r="Y16" s="45"/>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="31"/>
-      <c r="G15" s="32" t="s">
+      <c r="B17" s="18"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="21"/>
+      <c r="G17" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="H15" s="33" t="s">
+      <c r="H17" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="I15" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="K15" s="32" t="s">
+      <c r="I17" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="K17" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="L15" s="33" t="s">
+      <c r="L17" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="M15" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="O15" s="32" t="s">
+      <c r="M17" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="O17" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="P15" s="33" t="s">
+      <c r="P17" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="Q15" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="S15" s="68"/>
-      <c r="T15" s="33"/>
-      <c r="U15" s="69"/>
-      <c r="W15" s="68"/>
-      <c r="X15" s="33"/>
-      <c r="Y15" s="69"/>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
+      <c r="Q17" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="S17" s="44"/>
+      <c r="T17" s="23"/>
+      <c r="U17" s="45"/>
+      <c r="W17" s="44"/>
+      <c r="X17" s="23"/>
+      <c r="Y17" s="45"/>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="31"/>
-      <c r="G16" s="32" t="s">
+      <c r="B18" s="18"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="21"/>
+      <c r="G18" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="H16" s="33" t="s">
+      <c r="H18" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="I16" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="K16" s="32" t="s">
+      <c r="I18" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="K18" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="L16" s="33" t="s">
+      <c r="L18" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="M16" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="O16" s="32" t="s">
+      <c r="M18" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="O18" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="P16" s="33" t="s">
+      <c r="P18" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="Q16" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="S16" s="68"/>
-      <c r="T16" s="33"/>
-      <c r="U16" s="69"/>
-      <c r="W16" s="68"/>
-      <c r="X16" s="33"/>
-      <c r="Y16" s="69"/>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
+      <c r="Q18" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="S18" s="44"/>
+      <c r="T18" s="23"/>
+      <c r="U18" s="45"/>
+      <c r="W18" s="44"/>
+      <c r="X18" s="23"/>
+      <c r="Y18" s="45"/>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="31"/>
-      <c r="G17" s="32" t="s">
+      <c r="B19" s="18"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="21"/>
+      <c r="G19" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="H17" s="33" t="s">
+      <c r="H19" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="I17" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="K17" s="32" t="s">
+      <c r="I19" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="K19" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="L17" s="33" t="s">
+      <c r="L19" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="M17" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="O17" s="32" t="s">
+      <c r="M19" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="O19" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="P17" s="33" t="s">
+      <c r="P19" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="Q17" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="S17" s="68"/>
-      <c r="T17" s="33"/>
-      <c r="U17" s="69"/>
-      <c r="W17" s="68"/>
-      <c r="X17" s="33"/>
-      <c r="Y17" s="69"/>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
+      <c r="Q19" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="S19" s="44"/>
+      <c r="T19" s="23"/>
+      <c r="U19" s="45"/>
+      <c r="W19" s="44"/>
+      <c r="X19" s="23"/>
+      <c r="Y19" s="45"/>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="31"/>
-      <c r="G18" s="32" t="s">
+      <c r="B20" s="18"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="21"/>
+      <c r="G20" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="H18" s="33" t="s">
+      <c r="H20" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="I18" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="K18" s="32" t="s">
+      <c r="I20" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="K20" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="L18" s="33" t="s">
+      <c r="L20" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="M18" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="O18" s="32"/>
-      <c r="P18" s="33"/>
-      <c r="Q18" s="34"/>
-      <c r="S18" s="68"/>
-      <c r="T18" s="33"/>
-      <c r="U18" s="69"/>
-      <c r="W18" s="68"/>
-      <c r="X18" s="33"/>
-      <c r="Y18" s="69"/>
-    </row>
-    <row r="19" spans="1:25" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="22" t="s">
+      <c r="M20" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="O20" s="15"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="24"/>
+      <c r="S20" s="44"/>
+      <c r="T20" s="23"/>
+      <c r="U20" s="45"/>
+      <c r="W20" s="44"/>
+      <c r="X20" s="23"/>
+      <c r="Y20" s="45"/>
+    </row>
+    <row r="21" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="26"/>
-      <c r="G19" s="39" t="s">
+      <c r="B21" s="18"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="21"/>
+      <c r="F21"/>
+      <c r="G21" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="H19" s="33" t="s">
+      <c r="H21" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="I19" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="K19" s="39" t="s">
+      <c r="I21" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="J21"/>
+      <c r="K21" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="L19" s="40" t="s">
+      <c r="L21" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="M19" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="O19" s="39" t="s">
+      <c r="M21" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="N21"/>
+      <c r="O21" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="P19" s="40" t="s">
+      <c r="P21" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="Q19" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="S19" s="68"/>
-      <c r="T19" s="33"/>
-      <c r="U19" s="69"/>
-      <c r="W19" s="68"/>
-      <c r="X19" s="33"/>
-      <c r="Y19" s="69"/>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
+      <c r="Q21" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="R21"/>
+      <c r="S21" s="44"/>
+      <c r="T21" s="23"/>
+      <c r="U21" s="45"/>
+      <c r="V21"/>
+      <c r="W21" s="44"/>
+      <c r="X21" s="23"/>
+      <c r="Y21" s="45"/>
+      <c r="Z21"/>
+      <c r="AA21"/>
+      <c r="AB21"/>
+      <c r="AC21"/>
+      <c r="AD21"/>
+      <c r="AE21"/>
+      <c r="AF21"/>
+      <c r="AG21"/>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="28"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="31"/>
-      <c r="G20" s="32" t="s">
+      <c r="B22" s="18"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="21"/>
+      <c r="G22" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="H20" s="33" t="s">
+      <c r="H22" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="I20" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="K20" s="32" t="s">
+      <c r="I22" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="K22" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="L20" s="33" t="s">
+      <c r="L22" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="M20" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="O20" s="32"/>
-      <c r="P20" s="33"/>
-      <c r="Q20" s="34"/>
-      <c r="S20" s="68"/>
-      <c r="T20" s="33"/>
-      <c r="U20" s="69"/>
-      <c r="W20" s="68"/>
-      <c r="X20" s="33"/>
-      <c r="Y20" s="69"/>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A21" s="37" t="s">
+      <c r="M22" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="O22" s="15"/>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="24"/>
+      <c r="S22" s="44"/>
+      <c r="T22" s="23"/>
+      <c r="U22" s="45"/>
+      <c r="W22" s="44"/>
+      <c r="X22" s="23"/>
+      <c r="Y22" s="45"/>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="31"/>
-      <c r="G21" s="19" t="s">
+      <c r="B23" s="18"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="21"/>
+      <c r="G23" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="H21" s="20" t="s">
+      <c r="H23" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="I21" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="K21" s="19"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="21"/>
-      <c r="O21" s="19" t="s">
+      <c r="I23" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="K23" s="15"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="24"/>
+      <c r="O23" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="P21" s="20" t="s">
+      <c r="P23" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="Q21" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="S21" s="66"/>
-      <c r="T21" s="20"/>
-      <c r="U21" s="67"/>
-      <c r="W21" s="66"/>
-      <c r="X21" s="20"/>
-      <c r="Y21" s="67"/>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A22" s="37" t="s">
+      <c r="Q23" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="S23" s="44"/>
+      <c r="T23" s="23"/>
+      <c r="U23" s="45"/>
+      <c r="W23" s="44"/>
+      <c r="X23" s="23"/>
+      <c r="Y23" s="45"/>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="B22" s="28"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="31"/>
-      <c r="G22" s="19" t="s">
+      <c r="B24" s="18"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="21"/>
+      <c r="G24" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="H22" s="20" t="s">
+      <c r="H24" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="I22" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="K22" s="19"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="21"/>
-      <c r="O22" s="19"/>
-      <c r="P22" s="20"/>
-      <c r="Q22" s="34"/>
-      <c r="S22" s="66"/>
-      <c r="T22" s="20"/>
-      <c r="U22" s="67"/>
-      <c r="W22" s="66"/>
-      <c r="X22" s="20"/>
-      <c r="Y22" s="67"/>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A23" s="37" t="s">
+      <c r="I24" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="K24" s="15"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="24"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="24"/>
+      <c r="S24" s="44"/>
+      <c r="T24" s="23"/>
+      <c r="U24" s="45"/>
+      <c r="W24" s="44"/>
+      <c r="X24" s="23"/>
+      <c r="Y24" s="45"/>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="38"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="45"/>
-      <c r="G23" s="19" t="s">
+      <c r="B25" s="18"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="21"/>
+      <c r="G25" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="H23" s="20" t="s">
+      <c r="H25" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="I23" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="K23" s="19"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="21"/>
-      <c r="O23" s="19"/>
-      <c r="P23" s="20"/>
-      <c r="Q23" s="34"/>
-      <c r="S23" s="66"/>
-      <c r="T23" s="20"/>
-      <c r="U23" s="67"/>
-      <c r="W23" s="66"/>
-      <c r="X23" s="20"/>
-      <c r="Y23" s="67"/>
-    </row>
-    <row r="24" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="46" t="s">
+      <c r="I25" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="K25" s="15"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="24"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="16"/>
+      <c r="Q25" s="24"/>
+      <c r="S25" s="44"/>
+      <c r="T25" s="23"/>
+      <c r="U25" s="45"/>
+      <c r="W25" s="44"/>
+      <c r="X25" s="23"/>
+      <c r="Y25" s="45"/>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="B24" s="47"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="50"/>
-      <c r="G24" s="51" t="s">
+      <c r="B26" s="18"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="21"/>
+      <c r="G26" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="H24" s="52" t="s">
+      <c r="H26" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="I24" s="53" t="s">
+      <c r="I26" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="K24" s="51" t="s">
+      <c r="K26" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="L24" s="52" t="s">
+      <c r="L26" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="M24" s="53" t="s">
+      <c r="M26" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="O24" s="51" t="s">
+      <c r="O26" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="P24" s="52" t="s">
+      <c r="P26" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="Q24" s="53" t="s">
+      <c r="Q26" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="S24" s="71"/>
-      <c r="T24" s="72"/>
-      <c r="U24" s="73"/>
-      <c r="W24" s="71"/>
-      <c r="X24" s="72"/>
-      <c r="Y24" s="73"/>
-    </row>
-    <row r="25" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G25" s="54"/>
-      <c r="I25" s="55"/>
-      <c r="K25" s="54"/>
-      <c r="M25" s="55"/>
-      <c r="O25" s="54"/>
-      <c r="Q25" s="55"/>
-      <c r="S25" s="54"/>
-      <c r="U25" s="55"/>
-      <c r="W25" s="54"/>
-      <c r="Y25" s="55"/>
-    </row>
-    <row r="26" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="56" t="s">
+      <c r="S26" s="44"/>
+      <c r="T26" s="23"/>
+      <c r="U26" s="45"/>
+      <c r="W26" s="44"/>
+      <c r="X26" s="23"/>
+      <c r="Y26" s="45"/>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A27" s="14"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="21"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="24"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="24"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="16"/>
+      <c r="Q27" s="24"/>
+      <c r="S27" s="44"/>
+      <c r="T27" s="23"/>
+      <c r="U27" s="45"/>
+      <c r="W27" s="44"/>
+      <c r="X27" s="23"/>
+      <c r="Y27" s="45"/>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A28" s="14"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="21"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="24"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="24"/>
+      <c r="O28" s="15"/>
+      <c r="P28" s="16"/>
+      <c r="Q28" s="24"/>
+      <c r="S28" s="44"/>
+      <c r="T28" s="23"/>
+      <c r="U28" s="45"/>
+      <c r="W28" s="44"/>
+      <c r="X28" s="23"/>
+      <c r="Y28" s="45"/>
+    </row>
+    <row r="29" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="25"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="29"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="32"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="31"/>
+      <c r="M29" s="32"/>
+      <c r="O29" s="30"/>
+      <c r="P29" s="31"/>
+      <c r="Q29" s="32"/>
+      <c r="S29" s="46"/>
+      <c r="T29" s="47"/>
+      <c r="U29" s="48"/>
+      <c r="W29" s="46"/>
+      <c r="X29" s="47"/>
+      <c r="Y29" s="48"/>
+    </row>
+    <row r="30" spans="1:33" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G30" s="33"/>
+      <c r="I30" s="34"/>
+      <c r="K30" s="33"/>
+      <c r="M30" s="34"/>
+      <c r="O30" s="33"/>
+      <c r="Q30" s="34"/>
+      <c r="S30" s="33"/>
+      <c r="U30" s="34"/>
+      <c r="W30" s="33"/>
+      <c r="Y30" s="34"/>
+    </row>
+    <row r="31" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="B26" s="57" t="s">
+      <c r="B31" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="57"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="57" t="s">
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="G26" s="11" t="s">
+      <c r="G31" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H26" s="12" t="s">
+      <c r="H31" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="I26" s="13" t="s">
+      <c r="I31" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="K26" s="11" t="s">
+      <c r="K31" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="L26" s="12" t="s">
+      <c r="L31" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="M26" s="13" t="s">
+      <c r="M31" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="O26" s="11" t="s">
+      <c r="O31" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="P26" s="12" t="s">
+      <c r="P31" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="Q26" s="13" t="s">
+      <c r="Q31" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="S26" s="11" t="s">
+      <c r="S31" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="T26" s="12" t="s">
+      <c r="T31" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="U26" s="13" t="s">
+      <c r="U31" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="W26" s="11" t="s">
+      <c r="W31" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="X26" s="12" t="s">
+      <c r="X31" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="Y26" s="13" t="s">
+      <c r="Y31" s="13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A27" s="58" t="s">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A32" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="B32" s="49"/>
+      <c r="C32" s="50"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="38"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="24"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="23"/>
+      <c r="M32" s="24"/>
+      <c r="O32" s="22"/>
+      <c r="P32" s="23"/>
+      <c r="Q32" s="24"/>
+      <c r="S32" s="22"/>
+      <c r="T32" s="23"/>
+      <c r="U32" s="24"/>
+      <c r="W32" s="22"/>
+      <c r="X32" s="23"/>
+      <c r="Y32" s="24"/>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A33" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="B27" s="74" t="s">
+      <c r="B33" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="C27" s="75"/>
-      <c r="D27" s="76"/>
-      <c r="E27" s="59"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="34"/>
-      <c r="K27" s="32"/>
-      <c r="L27" s="33"/>
-      <c r="M27" s="34"/>
-      <c r="O27" s="32"/>
-      <c r="P27" s="33"/>
-      <c r="Q27" s="34"/>
-      <c r="S27" s="32"/>
-      <c r="T27" s="33"/>
-      <c r="U27" s="34"/>
-      <c r="W27" s="32"/>
-      <c r="X27" s="33"/>
-      <c r="Y27" s="34"/>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A28" s="58" t="s">
+      <c r="C33" s="50"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="38"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="24"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="23"/>
+      <c r="M33" s="24"/>
+      <c r="O33" s="22"/>
+      <c r="P33" s="23"/>
+      <c r="Q33" s="24"/>
+      <c r="S33" s="22"/>
+      <c r="T33" s="23"/>
+      <c r="U33" s="24"/>
+      <c r="W33" s="22"/>
+      <c r="X33" s="23"/>
+      <c r="Y33" s="24"/>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A34" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="B28" s="74" t="s">
+      <c r="B34" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="C28" s="75"/>
-      <c r="D28" s="76"/>
-      <c r="E28" s="59"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="34"/>
-      <c r="K28" s="32"/>
-      <c r="L28" s="33"/>
-      <c r="M28" s="34"/>
-      <c r="O28" s="32"/>
-      <c r="P28" s="33"/>
-      <c r="Q28" s="34"/>
-      <c r="S28" s="32"/>
-      <c r="T28" s="33"/>
-      <c r="U28" s="34"/>
-      <c r="W28" s="32"/>
-      <c r="X28" s="33"/>
-      <c r="Y28" s="34"/>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A29" s="58"/>
-      <c r="B29" s="74"/>
-      <c r="C29" s="75"/>
-      <c r="D29" s="76"/>
-      <c r="E29" s="59"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="33"/>
-      <c r="I29" s="34"/>
-      <c r="K29" s="32"/>
-      <c r="L29" s="33"/>
-      <c r="M29" s="34"/>
-      <c r="O29" s="32"/>
-      <c r="P29" s="33"/>
-      <c r="Q29" s="34"/>
-      <c r="S29" s="32"/>
-      <c r="T29" s="33"/>
-      <c r="U29" s="34"/>
-      <c r="W29" s="32"/>
-      <c r="X29" s="33"/>
-      <c r="Y29" s="34"/>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A30" s="58"/>
-      <c r="B30" s="74"/>
-      <c r="C30" s="75"/>
-      <c r="D30" s="76"/>
-      <c r="E30" s="59"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="34"/>
-      <c r="K30" s="32"/>
-      <c r="L30" s="33"/>
-      <c r="M30" s="34"/>
-      <c r="O30" s="32"/>
-      <c r="P30" s="33"/>
-      <c r="Q30" s="34"/>
-      <c r="S30" s="32"/>
-      <c r="T30" s="33"/>
-      <c r="U30" s="34"/>
-      <c r="W30" s="32"/>
-      <c r="X30" s="33"/>
-      <c r="Y30" s="34"/>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A31" s="58"/>
-      <c r="B31" s="74"/>
-      <c r="C31" s="75"/>
-      <c r="D31" s="76"/>
-      <c r="E31" s="59"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="34"/>
-      <c r="K31" s="32"/>
-      <c r="L31" s="33"/>
-      <c r="M31" s="34"/>
-      <c r="O31" s="32"/>
-      <c r="P31" s="33"/>
-      <c r="Q31" s="34"/>
-      <c r="S31" s="32"/>
-      <c r="T31" s="33"/>
-      <c r="U31" s="34"/>
-      <c r="W31" s="32"/>
-      <c r="X31" s="33"/>
-      <c r="Y31" s="34"/>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A32" s="58"/>
-      <c r="B32" s="74"/>
-      <c r="C32" s="75"/>
-      <c r="D32" s="76"/>
-      <c r="E32" s="59"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="33"/>
-      <c r="I32" s="34"/>
-      <c r="K32" s="32"/>
-      <c r="L32" s="33"/>
-      <c r="M32" s="34"/>
-      <c r="O32" s="32"/>
-      <c r="P32" s="33"/>
-      <c r="Q32" s="34"/>
-      <c r="S32" s="32"/>
-      <c r="T32" s="33"/>
-      <c r="U32" s="34"/>
-      <c r="W32" s="32"/>
-      <c r="X32" s="33"/>
-      <c r="Y32" s="34"/>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A33" s="58"/>
-      <c r="B33" s="74"/>
-      <c r="C33" s="75"/>
-      <c r="D33" s="76"/>
-      <c r="E33" s="59"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="34"/>
-      <c r="K33" s="32"/>
-      <c r="L33" s="33"/>
-      <c r="M33" s="34"/>
-      <c r="O33" s="32"/>
-      <c r="P33" s="33"/>
-      <c r="Q33" s="34"/>
-      <c r="S33" s="32"/>
-      <c r="T33" s="33"/>
-      <c r="U33" s="34"/>
-      <c r="W33" s="32"/>
-      <c r="X33" s="33"/>
-      <c r="Y33" s="34"/>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A34" s="58"/>
-      <c r="B34" s="74"/>
-      <c r="C34" s="75"/>
-      <c r="D34" s="76"/>
-      <c r="E34" s="59"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="34"/>
-      <c r="K34" s="32"/>
-      <c r="L34" s="33"/>
-      <c r="M34" s="34"/>
-      <c r="O34" s="32"/>
-      <c r="P34" s="33"/>
-      <c r="Q34" s="34"/>
-      <c r="S34" s="32"/>
-      <c r="T34" s="33"/>
-      <c r="U34" s="34"/>
-      <c r="W34" s="32"/>
-      <c r="X34" s="33"/>
-      <c r="Y34" s="34"/>
-    </row>
-    <row r="35" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="60"/>
-      <c r="B35" s="77"/>
-      <c r="C35" s="78"/>
-      <c r="D35" s="79"/>
-      <c r="E35" s="61"/>
-      <c r="G35" s="51"/>
-      <c r="H35" s="52"/>
-      <c r="I35" s="53"/>
-      <c r="K35" s="51"/>
-      <c r="L35" s="52"/>
-      <c r="M35" s="53"/>
-      <c r="O35" s="51"/>
-      <c r="P35" s="52"/>
-      <c r="Q35" s="53"/>
-      <c r="S35" s="51"/>
-      <c r="T35" s="52"/>
-      <c r="U35" s="53"/>
-      <c r="W35" s="51"/>
-      <c r="X35" s="52"/>
-      <c r="Y35" s="53"/>
-    </row>
-    <row r="36" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="C34" s="50"/>
+      <c r="D34" s="51"/>
+      <c r="E34" s="38"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="24"/>
+      <c r="K34" s="22"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="24"/>
+      <c r="O34" s="22"/>
+      <c r="P34" s="23"/>
+      <c r="Q34" s="24"/>
+      <c r="S34" s="22"/>
+      <c r="T34" s="23"/>
+      <c r="U34" s="24"/>
+      <c r="W34" s="22"/>
+      <c r="X34" s="23"/>
+      <c r="Y34" s="24"/>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A35" s="37"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="51"/>
+      <c r="E35" s="38"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="24"/>
+      <c r="K35" s="22"/>
+      <c r="L35" s="23"/>
+      <c r="M35" s="24"/>
+      <c r="O35" s="22"/>
+      <c r="P35" s="23"/>
+      <c r="Q35" s="24"/>
+      <c r="S35" s="22"/>
+      <c r="T35" s="23"/>
+      <c r="U35" s="24"/>
+      <c r="W35" s="22"/>
+      <c r="X35" s="23"/>
+      <c r="Y35" s="24"/>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A36" s="37"/>
+      <c r="B36" s="49"/>
+      <c r="C36" s="50"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="38"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="24"/>
+      <c r="K36" s="22"/>
+      <c r="L36" s="23"/>
+      <c r="M36" s="24"/>
+      <c r="O36" s="22"/>
+      <c r="P36" s="23"/>
+      <c r="Q36" s="24"/>
+      <c r="S36" s="22"/>
+      <c r="T36" s="23"/>
+      <c r="U36" s="24"/>
+      <c r="W36" s="22"/>
+      <c r="X36" s="23"/>
+      <c r="Y36" s="24"/>
+    </row>
+    <row r="37" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="39"/>
+      <c r="B37" s="52"/>
+      <c r="C37" s="53"/>
+      <c r="D37" s="54"/>
+      <c r="E37" s="40"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="32"/>
+      <c r="K37" s="30"/>
+      <c r="L37" s="31"/>
+      <c r="M37" s="32"/>
+      <c r="O37" s="30"/>
+      <c r="P37" s="31"/>
+      <c r="Q37" s="32"/>
+      <c r="S37" s="30"/>
+      <c r="T37" s="31"/>
+      <c r="U37" s="32"/>
+      <c r="W37" s="30"/>
+      <c r="X37" s="31"/>
+      <c r="Y37" s="32"/>
+    </row>
+    <row r="38" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="A6:X6 V19:X19 V7:X7 V13:X13 A8:G24 J8:K24 N8:X10 R20:X24 R19:T19 N11:O24 R11:X12 R14:X18 R13:T13 A7:T7" name="Contact Fields"/>
-    <protectedRange sqref="A27:Y35" name="Questionnaire"/>
-    <protectedRange sqref="H24 H8:I23" name="Contact Fields_1"/>
-    <protectedRange sqref="I24" name="Questionnaire_1"/>
-    <protectedRange sqref="L8:M24" name="Contact Fields_2"/>
-    <protectedRange sqref="P11:Q24" name="Contact Fields_3"/>
+    <protectedRange sqref="K10:K29 S22:U29 S21:T21 O13:O29 S16:U20 S15:T15 A6:E29 G10:G29 G6:I9 K6:Q8 K9:M9 O9:Q12 N9:N29 S10:U14 S6:U8 S9:T9 W6:X29" name="Contact Fields"/>
+    <protectedRange sqref="A36:Y37 B32:Y32 A33:Y35" name="Questionnaire"/>
+    <protectedRange sqref="H10:I28 H29" name="Contact Fields_1"/>
+    <protectedRange sqref="L10:M29" name="Contact Fields_2"/>
+    <protectedRange sqref="P13:Q29 I29" name="Contact Fields_3"/>
+    <protectedRange sqref="A32" name="Questionnaire_2"/>
   </protectedRanges>
-  <mergeCells count="14">
+  <mergeCells count="11">
     <mergeCell ref="G3:I3"/>
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="O3:Q3"/>
     <mergeCell ref="S3:U3"/>
     <mergeCell ref="W3:Y3"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B30:D30"/>
   </mergeCells>
-  <conditionalFormatting sqref="A25:AG25 A24:G24 B8:G23 J8:K24 N7:AG10 N11:O24 R11:AG24 B7:F7 J7">
-    <cfRule type="expression" dxfId="17" priority="39">
-      <formula>$C7="x"</formula>
+  <conditionalFormatting sqref="A30:Y30 A29:E29 K29 O29 W29:Y29 B6:E28 G6:G29 S6:U29">
+    <cfRule type="expression" dxfId="21" priority="49">
+      <formula>$C6="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="40">
-      <formula>$D7="x"</formula>
+    <cfRule type="expression" dxfId="20" priority="50">
+      <formula>$D6="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W27:Y35 S27:U35 O27:Q35 K27:M35 G27:I35">
-    <cfRule type="expression" dxfId="15" priority="37">
-      <formula>$C27="x"</formula>
+  <conditionalFormatting sqref="W32:Y37 S32:U37 O32:Q37 K32:M37 G32:I37">
+    <cfRule type="expression" dxfId="19" priority="47">
+      <formula>$C32="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="38">
-      <formula>$D27="x"</formula>
+    <cfRule type="expression" dxfId="18" priority="48">
+      <formula>$D32="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A7:A23">
-    <cfRule type="expression" dxfId="13" priority="27">
-      <formula>$C7="x"</formula>
+  <conditionalFormatting sqref="A6:A28">
+    <cfRule type="expression" dxfId="17" priority="37">
+      <formula>$C6="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="28">
-      <formula>$D7="x"</formula>
+    <cfRule type="expression" dxfId="16" priority="38">
+      <formula>$D6="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H24 H8:I23">
-    <cfRule type="expression" dxfId="11" priority="19">
-      <formula>$C8="x"</formula>
+  <conditionalFormatting sqref="H29 H6:I28">
+    <cfRule type="expression" dxfId="15" priority="29">
+      <formula>$C6="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="20">
-      <formula>$D8="x"</formula>
+    <cfRule type="expression" dxfId="14" priority="30">
+      <formula>$D6="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I24">
-    <cfRule type="expression" dxfId="9" priority="17">
-      <formula>$C24="x"</formula>
+  <conditionalFormatting sqref="L29:M29">
+    <cfRule type="expression" dxfId="13" priority="23">
+      <formula>$C29="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="18">
-      <formula>$D24="x"</formula>
+    <cfRule type="expression" dxfId="12" priority="24">
+      <formula>$D29="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L8:M24">
-    <cfRule type="expression" dxfId="7" priority="13">
-      <formula>$C8="x"</formula>
+  <conditionalFormatting sqref="P29:Q29">
+    <cfRule type="expression" dxfId="11" priority="15">
+      <formula>$C29="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="14">
-      <formula>$D8="x"</formula>
+    <cfRule type="expression" dxfId="10" priority="16">
+      <formula>$D29="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P11:Q24">
+  <conditionalFormatting sqref="G9:I9">
+    <cfRule type="expression" dxfId="9" priority="13">
+      <formula>$C9="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="14">
+      <formula>$D9="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I29">
+    <cfRule type="expression" dxfId="7" priority="7">
+      <formula>$C29="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="8">
+      <formula>$D29="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O6:O28 K6:K28">
     <cfRule type="expression" dxfId="5" priority="5">
-      <formula>$C11="x"</formula>
+      <formula>$C6="x"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="6">
-      <formula>$D11="x"</formula>
+      <formula>$D6="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7:I7">
+  <conditionalFormatting sqref="P6:Q28 L6:M28">
     <cfRule type="expression" dxfId="3" priority="3">
-      <formula>$C7="x"</formula>
+      <formula>$C6="x"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="4">
-      <formula>$D7="x"</formula>
+      <formula>$D6="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K7:M7">
+  <conditionalFormatting sqref="W6:Y28">
     <cfRule type="expression" dxfId="1" priority="1">
-      <formula>$C7="x"</formula>
+      <formula>$C6="x"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="2">
-      <formula>$D7="x"</formula>
+      <formula>$D6="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:D24" xr:uid="{2F7FE776-7F87-432C-9F15-37A73F22AC1A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:D29" xr:uid="{2F7FE776-7F87-432C-9F15-37A73F22AC1A}">
       <formula1>"x"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:I24 M6:M24 Q6:Q24 Y6:Y24 U6:U24 I27:I35 M27:M35 Q27:Q35 U27:U35 Y27:Y35" xr:uid="{F49109A3-03FE-4EBA-A701-AABC8E380E21}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M6:M29 Q6:Q29 Y6:Y29 U6:U29 I6:I29 U32:U37 Q32:Q37 M32:M37 I32:I37 Y32:Y37" xr:uid="{F49109A3-03FE-4EBA-A701-AABC8E380E21}">
       <formula1>"text,boolean,number,picklist,multiplicklist,lookup,date"</formula1>
     </dataValidation>
   </dataValidations>

--- a/default-mappings-xlsx/dataQuality/DataQuality_Mapping_Salesforce_EN.xlsx
+++ b/default-mappings-xlsx/dataQuality/DataQuality_Mapping_Salesforce_EN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitRepos\snapaddy-faq-attachments\default-mappings-xlsx\dataQuality\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitHub\snapaddy-faq-attachments\default-mappings-xlsx\dataQuality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C14563E-6021-457D-9D64-EFF4B2BCBB61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4FE442A-9B10-4CCA-A511-727E3E10954E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4020" yWindow="3720" windowWidth="23010" windowHeight="9105" xr2:uid="{4740A9B0-2E57-42FE-A57B-C2BAD0638104}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4740A9B0-2E57-42FE-A57B-C2BAD0638104}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -1114,6 +1114,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1131,18 +1143,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1857,39 +1857,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795B0A9E-16D1-4F4A-842C-C5B0396BE825}">
   <dimension ref="A1:AG38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
       <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" outlineLevelCol="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="40.85546875" customWidth="1"/>
+    <col min="1" max="1" width="40.81640625" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="3.7109375" customWidth="1"/>
-    <col min="4" max="4" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="1.7109375" customWidth="1"/>
+    <col min="3" max="3" width="3.7265625" customWidth="1"/>
+    <col min="4" max="4" width="3.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7265625" customWidth="1"/>
+    <col min="6" max="6" width="1.7265625" customWidth="1"/>
     <col min="7" max="9" width="15" customWidth="1"/>
-    <col min="10" max="10" width="1.7109375" customWidth="1"/>
+    <col min="10" max="10" width="1.7265625" customWidth="1"/>
     <col min="11" max="13" width="15" customWidth="1"/>
-    <col min="14" max="14" width="1.7109375" customWidth="1"/>
+    <col min="14" max="14" width="1.7265625" customWidth="1"/>
     <col min="15" max="17" width="15" customWidth="1"/>
-    <col min="18" max="18" width="1.7109375" customWidth="1"/>
+    <col min="18" max="18" width="1.7265625" customWidth="1"/>
     <col min="19" max="21" width="15" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="22" width="1.5703125" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="22" width="1.54296875" customWidth="1" outlineLevel="1"/>
     <col min="23" max="25" width="15" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:33" ht="21" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:33" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:33" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="G2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:33" ht="63.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1901,35 +1901,35 @@
         <v>3</v>
       </c>
       <c r="E3" s="5"/>
-      <c r="G3" s="55" t="s">
+      <c r="G3" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
       <c r="J3" s="6"/>
-      <c r="K3" s="55" t="s">
+      <c r="K3" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
-      <c r="O3" s="55" t="s">
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="O3" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="P3" s="55"/>
-      <c r="Q3" s="55"/>
-      <c r="S3" s="56" t="s">
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+      <c r="S3" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="T3" s="57"/>
-      <c r="U3" s="58"/>
-      <c r="W3" s="56" t="s">
+      <c r="T3" s="51"/>
+      <c r="U3" s="52"/>
+      <c r="W3" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="X3" s="57"/>
-      <c r="Y3" s="58"/>
-    </row>
-    <row r="4" spans="1:33" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X3" s="51"/>
+      <c r="Y3" s="52"/>
+    </row>
+    <row r="4" spans="1:33" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="1:33" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
@@ -1987,7 +1987,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A6" s="14" t="s">
         <v>74</v>
       </c>
@@ -2021,7 +2021,7 @@
       <c r="X6" s="23"/>
       <c r="Y6" s="45"/>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A7" s="14" t="s">
         <v>77</v>
       </c>
@@ -2055,7 +2055,7 @@
       <c r="X7" s="23"/>
       <c r="Y7" s="45"/>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A8" s="14"/>
       <c r="B8" s="18"/>
       <c r="C8" s="19"/>
@@ -2077,7 +2077,7 @@
       <c r="X8" s="23"/>
       <c r="Y8" s="45"/>
     </row>
-    <row r="9" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="14" t="s">
         <v>14</v>
       </c>
@@ -2130,7 +2130,7 @@
       <c r="AF9"/>
       <c r="AG9"/>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A10" s="14" t="s">
         <v>17</v>
       </c>
@@ -2170,7 +2170,7 @@
       <c r="X10" s="23"/>
       <c r="Y10" s="45"/>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A11" s="14" t="s">
         <v>21</v>
       </c>
@@ -2206,7 +2206,7 @@
       <c r="X11" s="23"/>
       <c r="Y11" s="45"/>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A12" s="14" t="s">
         <v>60</v>
       </c>
@@ -2242,7 +2242,7 @@
       <c r="X12" s="23"/>
       <c r="Y12" s="45"/>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A13" s="14" t="s">
         <v>24</v>
       </c>
@@ -2278,7 +2278,7 @@
       <c r="X13" s="23"/>
       <c r="Y13" s="45"/>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A14" s="14" t="s">
         <v>27</v>
       </c>
@@ -2320,7 +2320,7 @@
       <c r="X14" s="23"/>
       <c r="Y14" s="45"/>
     </row>
-    <row r="15" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="14" t="s">
         <v>30</v>
       </c>
@@ -2375,7 +2375,7 @@
       <c r="AF15"/>
       <c r="AG15"/>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A16" s="14" t="s">
         <v>34</v>
       </c>
@@ -2417,7 +2417,7 @@
       <c r="X16" s="23"/>
       <c r="Y16" s="45"/>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A17" s="14" t="s">
         <v>61</v>
       </c>
@@ -2459,7 +2459,7 @@
       <c r="X17" s="23"/>
       <c r="Y17" s="45"/>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A18" s="14" t="s">
         <v>41</v>
       </c>
@@ -2501,7 +2501,7 @@
       <c r="X18" s="23"/>
       <c r="Y18" s="45"/>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A19" s="14" t="s">
         <v>44</v>
       </c>
@@ -2543,7 +2543,7 @@
       <c r="X19" s="23"/>
       <c r="Y19" s="45"/>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A20" s="14" t="s">
         <v>45</v>
       </c>
@@ -2579,7 +2579,7 @@
       <c r="X20" s="23"/>
       <c r="Y20" s="45"/>
     </row>
-    <row r="21" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="14" t="s">
         <v>47</v>
       </c>
@@ -2634,7 +2634,7 @@
       <c r="AF21"/>
       <c r="AG21"/>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A22" s="14" t="s">
         <v>48</v>
       </c>
@@ -2670,7 +2670,7 @@
       <c r="X22" s="23"/>
       <c r="Y22" s="45"/>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A23" s="14" t="s">
         <v>50</v>
       </c>
@@ -2706,7 +2706,7 @@
       <c r="X23" s="23"/>
       <c r="Y23" s="45"/>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A24" s="14" t="s">
         <v>51</v>
       </c>
@@ -2736,7 +2736,7 @@
       <c r="X24" s="23"/>
       <c r="Y24" s="45"/>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A25" s="14" t="s">
         <v>62</v>
       </c>
@@ -2766,7 +2766,7 @@
       <c r="X25" s="23"/>
       <c r="Y25" s="45"/>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A26" s="14" t="s">
         <v>63</v>
       </c>
@@ -2808,7 +2808,7 @@
       <c r="X26" s="23"/>
       <c r="Y26" s="45"/>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A27" s="14"/>
       <c r="B27" s="18"/>
       <c r="C27" s="19"/>
@@ -2830,7 +2830,7 @@
       <c r="X27" s="23"/>
       <c r="Y27" s="45"/>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A28" s="14"/>
       <c r="B28" s="18"/>
       <c r="C28" s="19"/>
@@ -2852,7 +2852,7 @@
       <c r="X28" s="23"/>
       <c r="Y28" s="45"/>
     </row>
-    <row r="29" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="25"/>
       <c r="B29" s="26"/>
       <c r="C29" s="27"/>
@@ -2874,7 +2874,7 @@
       <c r="X29" s="47"/>
       <c r="Y29" s="48"/>
     </row>
-    <row r="30" spans="1:33" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:33" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="G30" s="33"/>
       <c r="I30" s="34"/>
       <c r="K30" s="33"/>
@@ -2886,7 +2886,7 @@
       <c r="W30" s="33"/>
       <c r="Y30" s="34"/>
     </row>
-    <row r="31" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:33" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A31" s="35" t="s">
         <v>57</v>
       </c>
@@ -2944,13 +2944,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A32" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="B32" s="49"/>
-      <c r="C32" s="50"/>
-      <c r="D32" s="51"/>
+      <c r="B32" s="53"/>
+      <c r="C32" s="54"/>
+      <c r="D32" s="55"/>
       <c r="E32" s="38"/>
       <c r="G32" s="22"/>
       <c r="H32" s="23"/>
@@ -2968,15 +2968,15 @@
       <c r="X32" s="23"/>
       <c r="Y32" s="24"/>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A33" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="B33" s="49" t="s">
+      <c r="B33" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="C33" s="50"/>
-      <c r="D33" s="51"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="55"/>
       <c r="E33" s="38"/>
       <c r="G33" s="22"/>
       <c r="H33" s="23"/>
@@ -2994,15 +2994,15 @@
       <c r="X33" s="23"/>
       <c r="Y33" s="24"/>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A34" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="B34" s="49" t="s">
+      <c r="B34" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="C34" s="50"/>
-      <c r="D34" s="51"/>
+      <c r="C34" s="54"/>
+      <c r="D34" s="55"/>
       <c r="E34" s="38"/>
       <c r="G34" s="22"/>
       <c r="H34" s="23"/>
@@ -3020,11 +3020,11 @@
       <c r="X34" s="23"/>
       <c r="Y34" s="24"/>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A35" s="37"/>
-      <c r="B35" s="49"/>
-      <c r="C35" s="50"/>
-      <c r="D35" s="51"/>
+      <c r="B35" s="53"/>
+      <c r="C35" s="54"/>
+      <c r="D35" s="55"/>
       <c r="E35" s="38"/>
       <c r="G35" s="22"/>
       <c r="H35" s="23"/>
@@ -3042,11 +3042,11 @@
       <c r="X35" s="23"/>
       <c r="Y35" s="24"/>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A36" s="37"/>
-      <c r="B36" s="49"/>
-      <c r="C36" s="50"/>
-      <c r="D36" s="51"/>
+      <c r="B36" s="53"/>
+      <c r="C36" s="54"/>
+      <c r="D36" s="55"/>
       <c r="E36" s="38"/>
       <c r="G36" s="22"/>
       <c r="H36" s="23"/>
@@ -3064,11 +3064,11 @@
       <c r="X36" s="23"/>
       <c r="Y36" s="24"/>
     </row>
-    <row r="37" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="39"/>
-      <c r="B37" s="52"/>
-      <c r="C37" s="53"/>
-      <c r="D37" s="54"/>
+      <c r="B37" s="56"/>
+      <c r="C37" s="57"/>
+      <c r="D37" s="58"/>
       <c r="E37" s="40"/>
       <c r="G37" s="30"/>
       <c r="H37" s="31"/>
@@ -3086,7 +3086,7 @@
       <c r="X37" s="31"/>
       <c r="Y37" s="32"/>
     </row>
-    <row r="38" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:25" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <protectedRanges>
     <protectedRange sqref="K10:K29 S22:U29 S21:T21 O13:O29 S16:U20 S15:T15 A6:E29 G10:G29 G6:I9 K6:Q8 K9:M9 O9:Q12 N9:N29 S10:U14 S6:U8 S9:T9 W6:X29" name="Contact Fields"/>
@@ -3097,17 +3097,17 @@
     <protectedRange sqref="A32" name="Questionnaire_2"/>
   </protectedRanges>
   <mergeCells count="11">
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="S3:U3"/>
-    <mergeCell ref="W3:Y3"/>
     <mergeCell ref="B36:D36"/>
     <mergeCell ref="B37:D37"/>
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="B35:D35"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="S3:U3"/>
+    <mergeCell ref="W3:Y3"/>
   </mergeCells>
   <conditionalFormatting sqref="A30:Y30 A29:E29 K29 O29 W29:Y29 B6:E28 G6:G29 S6:U29">
     <cfRule type="expression" dxfId="21" priority="49">

--- a/default-mappings-xlsx/dataQuality/DataQuality_Mapping_Salesforce_EN.xlsx
+++ b/default-mappings-xlsx/dataQuality/DataQuality_Mapping_Salesforce_EN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitHub\snapaddy-faq-attachments\default-mappings-xlsx\dataQuality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4FE442A-9B10-4CCA-A511-727E3E10954E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1142151-87FB-436B-BD63-CD68F1DE35FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4740A9B0-2E57-42FE-A57B-C2BAD0638104}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4740A9B0-2E57-42FE-A57B-C2BAD0638104}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -1114,18 +1114,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1143,6 +1131,18 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1857,39 +1857,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795B0A9E-16D1-4F4A-842C-C5B0396BE825}">
   <dimension ref="A1:AG38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I32" activeCellId="9" sqref="I6:I29 M6:M29 Q6:Q29 U6:U29 Y6:Y29 Y32:Y37 U32:U37 Q32:Q37 M32:M37 I32:I37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" outlineLevelCol="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.81640625" customWidth="1"/>
+    <col min="1" max="1" width="40.85546875" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="3.7265625" customWidth="1"/>
-    <col min="4" max="4" width="3.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7265625" customWidth="1"/>
-    <col min="6" max="6" width="1.7265625" customWidth="1"/>
+    <col min="3" max="3" width="3.7109375" customWidth="1"/>
+    <col min="4" max="4" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="1.7109375" customWidth="1"/>
     <col min="7" max="9" width="15" customWidth="1"/>
-    <col min="10" max="10" width="1.7265625" customWidth="1"/>
+    <col min="10" max="10" width="1.7109375" customWidth="1"/>
     <col min="11" max="13" width="15" customWidth="1"/>
-    <col min="14" max="14" width="1.7265625" customWidth="1"/>
+    <col min="14" max="14" width="1.7109375" customWidth="1"/>
     <col min="15" max="17" width="15" customWidth="1"/>
-    <col min="18" max="18" width="1.7265625" customWidth="1"/>
+    <col min="18" max="18" width="1.7109375" customWidth="1"/>
     <col min="19" max="21" width="15" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="22" width="1.54296875" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="22" width="1.5703125" customWidth="1" outlineLevel="1"/>
     <col min="23" max="25" width="15" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="21" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:33" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:33" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:33" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:33" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:33" ht="63.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1901,35 +1901,35 @@
         <v>3</v>
       </c>
       <c r="E3" s="5"/>
-      <c r="G3" s="49" t="s">
+      <c r="G3" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
       <c r="J3" s="6"/>
-      <c r="K3" s="49" t="s">
+      <c r="K3" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="O3" s="49" t="s">
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="O3" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="49"/>
-      <c r="S3" s="50" t="s">
+      <c r="P3" s="55"/>
+      <c r="Q3" s="55"/>
+      <c r="S3" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="T3" s="51"/>
-      <c r="U3" s="52"/>
-      <c r="W3" s="50" t="s">
+      <c r="T3" s="57"/>
+      <c r="U3" s="58"/>
+      <c r="W3" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="X3" s="51"/>
-      <c r="Y3" s="52"/>
-    </row>
-    <row r="4" spans="1:33" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="5" spans="1:33" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="X3" s="57"/>
+      <c r="Y3" s="58"/>
+    </row>
+    <row r="4" spans="1:33" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
@@ -1987,7 +1987,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:33" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>74</v>
       </c>
@@ -2021,7 +2021,7 @@
       <c r="X6" s="23"/>
       <c r="Y6" s="45"/>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>77</v>
       </c>
@@ -2055,7 +2055,7 @@
       <c r="X7" s="23"/>
       <c r="Y7" s="45"/>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="14"/>
       <c r="B8" s="18"/>
       <c r="C8" s="19"/>
@@ -2077,7 +2077,7 @@
       <c r="X8" s="23"/>
       <c r="Y8" s="45"/>
     </row>
-    <row r="9" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>14</v>
       </c>
@@ -2130,7 +2130,7 @@
       <c r="AF9"/>
       <c r="AG9"/>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>17</v>
       </c>
@@ -2170,7 +2170,7 @@
       <c r="X10" s="23"/>
       <c r="Y10" s="45"/>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>21</v>
       </c>
@@ -2206,7 +2206,7 @@
       <c r="X11" s="23"/>
       <c r="Y11" s="45"/>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>60</v>
       </c>
@@ -2242,7 +2242,7 @@
       <c r="X12" s="23"/>
       <c r="Y12" s="45"/>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>24</v>
       </c>
@@ -2278,7 +2278,7 @@
       <c r="X13" s="23"/>
       <c r="Y13" s="45"/>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>27</v>
       </c>
@@ -2320,7 +2320,7 @@
       <c r="X14" s="23"/>
       <c r="Y14" s="45"/>
     </row>
-    <row r="15" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>30</v>
       </c>
@@ -2375,7 +2375,7 @@
       <c r="AF15"/>
       <c r="AG15"/>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>34</v>
       </c>
@@ -2417,7 +2417,7 @@
       <c r="X16" s="23"/>
       <c r="Y16" s="45"/>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>61</v>
       </c>
@@ -2459,7 +2459,7 @@
       <c r="X17" s="23"/>
       <c r="Y17" s="45"/>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>41</v>
       </c>
@@ -2501,7 +2501,7 @@
       <c r="X18" s="23"/>
       <c r="Y18" s="45"/>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>44</v>
       </c>
@@ -2543,7 +2543,7 @@
       <c r="X19" s="23"/>
       <c r="Y19" s="45"/>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>45</v>
       </c>
@@ -2579,7 +2579,7 @@
       <c r="X20" s="23"/>
       <c r="Y20" s="45"/>
     </row>
-    <row r="21" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>47</v>
       </c>
@@ -2634,7 +2634,7 @@
       <c r="AF21"/>
       <c r="AG21"/>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>48</v>
       </c>
@@ -2670,7 +2670,7 @@
       <c r="X22" s="23"/>
       <c r="Y22" s="45"/>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>50</v>
       </c>
@@ -2706,7 +2706,7 @@
       <c r="X23" s="23"/>
       <c r="Y23" s="45"/>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>51</v>
       </c>
@@ -2736,7 +2736,7 @@
       <c r="X24" s="23"/>
       <c r="Y24" s="45"/>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>62</v>
       </c>
@@ -2766,7 +2766,7 @@
       <c r="X25" s="23"/>
       <c r="Y25" s="45"/>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
         <v>63</v>
       </c>
@@ -2808,7 +2808,7 @@
       <c r="X26" s="23"/>
       <c r="Y26" s="45"/>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A27" s="14"/>
       <c r="B27" s="18"/>
       <c r="C27" s="19"/>
@@ -2830,7 +2830,7 @@
       <c r="X27" s="23"/>
       <c r="Y27" s="45"/>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28" s="14"/>
       <c r="B28" s="18"/>
       <c r="C28" s="19"/>
@@ -2852,7 +2852,7 @@
       <c r="X28" s="23"/>
       <c r="Y28" s="45"/>
     </row>
-    <row r="29" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="25"/>
       <c r="B29" s="26"/>
       <c r="C29" s="27"/>
@@ -2874,7 +2874,7 @@
       <c r="X29" s="47"/>
       <c r="Y29" s="48"/>
     </row>
-    <row r="30" spans="1:33" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:33" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G30" s="33"/>
       <c r="I30" s="34"/>
       <c r="K30" s="33"/>
@@ -2886,7 +2886,7 @@
       <c r="W30" s="33"/>
       <c r="Y30" s="34"/>
     </row>
-    <row r="31" spans="1:33" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A31" s="35" t="s">
         <v>57</v>
       </c>
@@ -2944,13 +2944,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A32" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="B32" s="53"/>
-      <c r="C32" s="54"/>
-      <c r="D32" s="55"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="50"/>
+      <c r="D32" s="51"/>
       <c r="E32" s="38"/>
       <c r="G32" s="22"/>
       <c r="H32" s="23"/>
@@ -2968,15 +2968,15 @@
       <c r="X32" s="23"/>
       <c r="Y32" s="24"/>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="B33" s="53" t="s">
+      <c r="B33" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="C33" s="54"/>
-      <c r="D33" s="55"/>
+      <c r="C33" s="50"/>
+      <c r="D33" s="51"/>
       <c r="E33" s="38"/>
       <c r="G33" s="22"/>
       <c r="H33" s="23"/>
@@ -2994,15 +2994,15 @@
       <c r="X33" s="23"/>
       <c r="Y33" s="24"/>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="B34" s="53" t="s">
+      <c r="B34" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="C34" s="54"/>
-      <c r="D34" s="55"/>
+      <c r="C34" s="50"/>
+      <c r="D34" s="51"/>
       <c r="E34" s="38"/>
       <c r="G34" s="22"/>
       <c r="H34" s="23"/>
@@ -3020,11 +3020,11 @@
       <c r="X34" s="23"/>
       <c r="Y34" s="24"/>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="37"/>
-      <c r="B35" s="53"/>
-      <c r="C35" s="54"/>
-      <c r="D35" s="55"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="51"/>
       <c r="E35" s="38"/>
       <c r="G35" s="22"/>
       <c r="H35" s="23"/>
@@ -3042,11 +3042,11 @@
       <c r="X35" s="23"/>
       <c r="Y35" s="24"/>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="37"/>
-      <c r="B36" s="53"/>
-      <c r="C36" s="54"/>
-      <c r="D36" s="55"/>
+      <c r="B36" s="49"/>
+      <c r="C36" s="50"/>
+      <c r="D36" s="51"/>
       <c r="E36" s="38"/>
       <c r="G36" s="22"/>
       <c r="H36" s="23"/>
@@ -3064,11 +3064,11 @@
       <c r="X36" s="23"/>
       <c r="Y36" s="24"/>
     </row>
-    <row r="37" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="39"/>
-      <c r="B37" s="56"/>
-      <c r="C37" s="57"/>
-      <c r="D37" s="58"/>
+      <c r="B37" s="52"/>
+      <c r="C37" s="53"/>
+      <c r="D37" s="54"/>
       <c r="E37" s="40"/>
       <c r="G37" s="30"/>
       <c r="H37" s="31"/>
@@ -3086,7 +3086,7 @@
       <c r="X37" s="31"/>
       <c r="Y37" s="32"/>
     </row>
-    <row r="38" spans="1:25" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="38" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <protectedRanges>
     <protectedRange sqref="K10:K29 S22:U29 S21:T21 O13:O29 S16:U20 S15:T15 A6:E29 G10:G29 G6:I9 K6:Q8 K9:M9 O9:Q12 N9:N29 S10:U14 S6:U8 S9:T9 W6:X29" name="Contact Fields"/>
@@ -3097,17 +3097,17 @@
     <protectedRange sqref="A32" name="Questionnaire_2"/>
   </protectedRanges>
   <mergeCells count="11">
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="S3:U3"/>
+    <mergeCell ref="W3:Y3"/>
     <mergeCell ref="B36:D36"/>
     <mergeCell ref="B37:D37"/>
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="B35:D35"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="S3:U3"/>
-    <mergeCell ref="W3:Y3"/>
   </mergeCells>
   <conditionalFormatting sqref="A30:Y30 A29:E29 K29 O29 W29:Y29 B6:E28 G6:G29 S6:U29">
     <cfRule type="expression" dxfId="21" priority="49">
@@ -3201,8 +3201,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:D29" xr:uid="{2F7FE776-7F87-432C-9F15-37A73F22AC1A}">
       <formula1>"x"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M6:M29 Q6:Q29 Y6:Y29 U6:U29 I6:I29 U32:U37 Q32:Q37 M32:M37 I32:I37 Y32:Y37" xr:uid="{F49109A3-03FE-4EBA-A701-AABC8E380E21}">
-      <formula1>"text,boolean,number,picklist,multiplicklist,lookup,date"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:I29 M6:M29 Q6:Q29 U6:U29 Y6:Y29 Y32:Y37 U32:U37 Q32:Q37 M32:M37 I32:I37" xr:uid="{6840DF60-A619-428B-94BC-9113424A5CD7}">
+      <formula1>"text,boolean,number,picklist,multipicklist,lookup,date"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
